--- a/medicine/Enfance/Minuit_(roman)/Minuit_(roman).xlsx
+++ b/medicine/Enfance/Minuit_(roman)/Minuit_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Minuit (titre original : Midnight) est un roman d'Erin Hunter paru en 2005. Il s'agit du premier tome du deuxième cycle de la série La Guerre des clans, cycle intitulé La Dernière Prophétie.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prologue commence avec une réunion du Clan des Étoiles. Chaque représentant de chaque clan choisit un élu : Cœur de Chêne, l'ancien lieutenant du Clan de la Rivière, Étoile Noire, l'ancien chef du Clan de l'Ombre, Patte Folle, l'ancien lieutenant du Clan du Vent, et Étoile Bleue, l'ancienne chef du Clan du Tonnerre.
 Griffe de Ronce voit Étoile Bleue dans un rêve qui lui dit qu'il est l'élu du Clan du Tonnerre, qu'il retrouvera trois autres chats à la pleine lune et qu'il devra écouter les paroles de Minuit. À l'assemblée, Griffe de Ronce voit sa sœur Pelage d'Or du Clan de l'Ombre, qui lui avoue qu'elle a vu en rêve Étoile Noire. À la pleine lune, Griffe de Ronce se rend aux Quatre Chênes mais en chemin, Nuage d'Écureuil, la fille d'Étoile de Feu, le suit et l'accompagne. Il revoit donc Pelage d'Or mais aussi Jolie Plume accompagné de Pelage d'Orage son frère du Clan de la Rivière (les enfants de Plume Grise, le lieutenant) et Nuage Noir, un apprenti du Clan du Vent. Malheureusement ils ne reçoivent aucun signe et chaque élu repart chez lui.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Clan du Tonnerre
-Chef : Étoile de Feu - mâle au beau pelage roux
+          <t>Clan du Tonnerre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chef : Étoile de Feu - mâle au beau pelage roux
 Lieutenant : Plume Grise - chat gris plutôt massif à poil long
 Guérisseuse : Museau Cendré - chatte gris foncé
 Apprentie : Nuage de Feuille
@@ -585,9 +604,43 @@
 Pelage de Givre : chatte à la belle robe blanche et aux yeux bleus
 Plume Cendrée : femelle écaille, très jolie autrefois
 Perce-Neige : chatte crème mouchetée
-Bouton-d'Or : femelle roux pâle
-Clan de l'Ombre
-Chef : Étoile de jais - grand matou blanc aux longues pattes noires de jais, ancien chat errant
+Bouton-d'Or : femelle roux pâle</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Minuit_(roman)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minuit_(roman)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Effectifs des Clans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Clan de l'Ombre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chef : Étoile de jais - grand matou blanc aux longues pattes noires de jais, ancien chat errant
 Lieutenant : Feuille Rousse - femelle roux sombre, ancienne chatte errante
 Guérisseur : Petit Orage - chat tigré très menu
 Guerriers :
@@ -600,9 +653,43 @@
 Fleur de Pavot : chatte tachetée brun clair haute sur pattes`
 Ancien :
 Rhume des Foins - chat gris et blanc de petite taille
-Flèche Grise : ancien chat errant
-Clan du Vent
-Chef : Étoile Filante - mâle noir et blanc à la queue très longue
+Flèche Grise : ancien chat errant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Minuit_(roman)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minuit_(roman)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effectifs des Clans</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Clan du Vent</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chef : Étoile Filante - mâle noir et blanc à la queue très longue
 Lieutenant : Griffe de Pierre - mâle brun foncé au pelage pommelé
 Apprenti : Nuage Noir
 Guérisseur : Écorce de Chêne - chat brun à la queue très courte
@@ -614,9 +701,43 @@
 Patte Cendrée : chatte grise
 Aile Rousse : petite chatte blanche
 Anciens :
-Belle-de-Jour : femelle écaille
-Clan de la Rivière
-Chef : Étoile du Léopard - chatte au poil doré tacheté de noir
+Belle-de-Jour : femelle écaille</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Minuit_(roman)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minuit_(roman)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effectifs des Clans</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Clan de la Rivière</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chef : Étoile du Léopard - chatte au poil doré tacheté de noir
 Lieutenant : Patte de Brume - chatte gris-bleu foncé aux yeux bleus
 Guérisseur : Patte de Pierre - chat brun clair à poil long
 Apprentie : Papillon - jolie chatte au pelage doré et aux yeux ambrés
@@ -631,39 +752,75 @@
 Fleur de l'Aube : chatte gris perle
 Anciens :
 Ventre Affamé : chat brun foncé
-Pelage d'Ombre : chatte d'un gris très sombre
-Divers
-Isidore : vieux matou tigré qui vit dans les bois près de la mer
+Pelage d'Ombre : chatte d'un gris très sombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Minuit_(roman)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Minuit_(roman)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effectifs des Clans</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Isidore : vieux matou tigré qui vit dans les bois près de la mer
 Gerboise : matou noir et blanc qui vit près d'une ferme, de l'autre côté de la forêt
 Nuage de Jais : petit chat noir au poil lustré avec une tache blanche sur la poitrine et une sur le bout de la queue, ancien apprenti du Clan du Tonnerre</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Minuit_(roman)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Minuit_(roman)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Version française</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est traduit en langue française par Aude Carlier et publié en 2008. La version poche est sortie en 2011.
 </t>
